--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Detail" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Peaks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +30,6 @@
   </si>
   <si>
     <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Million Rows/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,6 +93,46 @@
   </si>
   <si>
     <t>Peaks is built by Go version: 1.20.3 Windows/AMD64 (Installed in Win11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(loss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second / Million Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,7 +283,39 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,13 +625,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="2.68359375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.68359375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.734375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.734375" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="9.9" customHeight="1">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="2:10" s="29" customFormat="1" ht="19.8">
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:10" s="19" customFormat="1">
+      <c r="C3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="2:10" s="19" customFormat="1">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0.60696517412935314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>9.3800000000000008E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.93800000000000006</v>
+      </c>
+      <c r="G6" s="20">
+        <v>7.1200000000000013E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.71200000000000019</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0.24093816631130049</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0.11947318908748827</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="32">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.12343999999999999</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.11484000000000001</v>
+      </c>
+      <c r="I8" s="33">
+        <v>6.9669475048606475E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" s="32">
+        <v>100</v>
+      </c>
+      <c r="E9" s="20">
+        <v>11.418800000000001</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.11418800000000001</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9.3134000000000015</v>
+      </c>
+      <c r="H9" s="20">
+        <v>9.3134000000000008E-2</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.18438014502399552</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.1718914</v>
+      </c>
+      <c r="G10" s="20">
+        <v>103.752</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.103752</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.39640959349915122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.42</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0.50292397660818711</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1.034</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.5260000000000002</v>
+      </c>
+      <c r="I13" s="33">
+        <v>-0.47582205029013558</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="I14" s="33">
+        <v>-0.27814569536423861</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="32">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1.5396000000000001</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.15396000000000001</v>
+      </c>
+      <c r="G15" s="20">
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.22699999999999995</v>
+      </c>
+      <c r="I15" s="33">
+        <v>-0.47440893738633366</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="32">
+        <v>100</v>
+      </c>
+      <c r="E16" s="20">
+        <v>12.912799999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.12912799999999999</v>
+      </c>
+      <c r="G16" s="20">
+        <v>22.830400000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.22830400000000001</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-0.76804411126943828</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="20">
+        <v>190.80019999999999</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.1908002</v>
+      </c>
+      <c r="G17" s="20">
+        <v>238.76220000000004</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.23876220000000004</v>
+      </c>
+      <c r="I17" s="33">
+        <v>-0.2513729021248407</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="G19" s="20">
+        <v>6.1399999999999996E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>6.14</v>
+      </c>
+      <c r="I19" s="33">
+        <v>-0.95541401273885307</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.16840000000000002</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="I20" s="33">
+        <v>-1.7516339869281048</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0.31804435483870963</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.879</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1.5875999999999999</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.15875999999999998</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0.59071925754060328</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="E23" s="20">
+        <v>88.646800000000013</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.88646800000000014</v>
+      </c>
+      <c r="G23" s="20">
+        <v>17.806599999999996</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.17806599999999995</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.799128676951678</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.1718914</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -575,24 +1152,24 @@
     <col min="4" max="4" width="4.62890625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.3671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="10.3671875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.47265625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.89453125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="2" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.15625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="10.3671875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.47265625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.89453125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="2" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.3671875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.7890625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.1015625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="19" width="9.7890625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="2.578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="19" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="2.578125" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.05078125" style="11" customWidth="1"/>
     <col min="22" max="16384" width="8.734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -614,12 +1191,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -659,10 +1236,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="25"/>
+      <c r="E4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="37"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -679,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -700,7 +1277,7 @@
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V4" s="3"/>
     </row>
@@ -713,20 +1290,20 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="22" t="s">
-        <v>5</v>
-      </c>
       <c r="N5" s="19" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -743,7 +1320,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
         <v>0.01</v>
@@ -1099,7 +1676,7 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7">
         <v>0.01</v>
@@ -1455,7 +2032,7 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
         <v>0.01</v>
@@ -1786,7 +2363,7 @@
         <v>171.477</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -1808,7 +2385,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1828,7 +2405,7 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1906,91 +2483,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.20703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Peaks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,13 +309,13 @@
     <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
@@ -661,14 +661,14 @@
         <v>20</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="36" t="s">
         <v>22</v>
       </c>
@@ -682,11 +682,11 @@
       <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
@@ -1086,18 +1086,12 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="25" t="s">
-        <v>12</v>
-      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -1138,7 +1132,7 @@
   <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
@@ -1236,10 +1230,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -1256,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="37"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>

--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Detail" sheetId="1" r:id="rId2"/>
+    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Peaks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +316,7 @@
     <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
@@ -661,14 +669,14 @@
         <v>20</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="36" t="s">
         <v>22</v>
       </c>
@@ -682,11 +690,11 @@
       <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +1140,7 @@
   <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
@@ -1230,10 +1238,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -1250,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -2477,4 +2485,1356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.68359375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.62890625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.3671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.15625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="10.3671875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.47265625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.89453125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="2" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.3671875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="19" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="2.578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.05078125" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="8.734375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="2:22" ht="9.9" customHeight="1">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" s="4" customFormat="1" ht="20.100000000000001" thickBot="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13">
+        <v>4</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="40"/>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>3</v>
+      </c>
+      <c r="R4" s="13">
+        <v>4</v>
+      </c>
+      <c r="S4" s="13">
+        <v>5</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="2:22" s="5" customFormat="1" ht="15.3" thickTop="1">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="2:22" s="5" customFormat="1">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="19"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="19"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="23">
+        <f>SUM(G7:L7)/5</f>
+        <v>4.02E-2</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7*100</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="23">
+        <f>SUM(O7:S7)/5</f>
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="N7" s="20">
+        <f>M7*100</f>
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="U7" s="10">
+        <f>(F7-N7)/F7</f>
+        <v>0.60696517412935314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="C8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" ref="E8:E25" si="0">SUM(G8:L8)/5</f>
+        <v>9.3800000000000008E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E8*10</f>
+        <v>0.93800000000000006</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="23">
+        <f t="shared" ref="M8:M12" si="1">SUM(O8:S8)/5</f>
+        <v>7.1200000000000013E-2</v>
+      </c>
+      <c r="N8" s="20">
+        <f>M8*10</f>
+        <v>0.71200000000000019</v>
+      </c>
+      <c r="O8" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" ref="U8:U12" si="2">(F8-N8)/F8</f>
+        <v>0.24093816631130049</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E9*1</f>
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="N9" s="20">
+        <f>M9*1</f>
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.192</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.11947318908748827</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E10/10</f>
+        <v>0.12343999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.173</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.125</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.016</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="N10" s="20">
+        <f>M10/10</f>
+        <v>0.11484000000000001</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1.129</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1.054</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="2"/>
+        <v>6.9669475048606475E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>11.418800000000001</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11/100</f>
+        <v>0.11418800000000001</v>
+      </c>
+      <c r="G11" s="8">
+        <v>15.798999999999999</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>8.907</v>
+      </c>
+      <c r="J11" s="8">
+        <v>13.56</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9.8279999999999994</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="23">
+        <f t="shared" si="1"/>
+        <v>9.3134000000000015</v>
+      </c>
+      <c r="N11" s="20">
+        <f>M11/100</f>
+        <v>9.3134000000000008E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>10.167999999999999</v>
+      </c>
+      <c r="P11" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="R11" s="8">
+        <v>8.9890000000000008</v>
+      </c>
+      <c r="S11" s="8">
+        <v>9.09</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18438014502399552</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="C12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>171.8914</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E12/1000</f>
+        <v>0.1718914</v>
+      </c>
+      <c r="G12" s="8">
+        <v>172.76400000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>175.661</v>
+      </c>
+      <c r="I12" s="8">
+        <v>168.83099999999999</v>
+      </c>
+      <c r="J12" s="8">
+        <v>170.72399999999999</v>
+      </c>
+      <c r="K12" s="8">
+        <v>171.477</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="23">
+        <f t="shared" si="1"/>
+        <v>103.752</v>
+      </c>
+      <c r="N12" s="20">
+        <f>M12/1000</f>
+        <v>0.103752</v>
+      </c>
+      <c r="O12" s="8">
+        <v>104.672</v>
+      </c>
+      <c r="P12" s="8">
+        <v>101.31</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>105.82599999999999</v>
+      </c>
+      <c r="R12" s="8">
+        <v>103.587</v>
+      </c>
+      <c r="S12" s="8">
+        <v>103.36499999999999</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.39640959349915122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F14" s="20">
+        <f>E14*100</f>
+        <v>3.42</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="23">
+        <f t="shared" ref="M14:M19" si="3">SUM(O14:S14)/5</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N14" s="20">
+        <f>M14*100</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" ref="U14" si="4">(F14-N14)/F14</f>
+        <v>0.50292397660818711</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="C15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F15" s="20">
+        <f>E15*10</f>
+        <v>1.034</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="23">
+        <f t="shared" si="3"/>
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="N15" s="20">
+        <f>M15*10</f>
+        <v>1.5260000000000002</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="U15" s="37">
+        <f>-(N15-F15)/N15</f>
+        <v>-0.32241153342070783</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <f>E16*1</f>
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="23">
+        <f t="shared" si="3"/>
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="N16" s="20">
+        <f>M16*1</f>
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="U16" s="37">
+        <f t="shared" ref="U16:U19" si="5">-(N16-F16)/N16</f>
+        <v>-0.21761658031088096</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="0"/>
+        <v>1.5396000000000001</v>
+      </c>
+      <c r="F17" s="20">
+        <f>E17/10</f>
+        <v>0.15396000000000001</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.141</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.359</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1.385</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="23">
+        <f t="shared" si="3"/>
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="N17" s="20">
+        <f>M17/10</f>
+        <v>0.22699999999999995</v>
+      </c>
+      <c r="O17" s="8">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="P17" s="8">
+        <v>2.177</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="R17" s="8">
+        <v>2.242</v>
+      </c>
+      <c r="S17" s="8">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="U17" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.32176211453744474</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="C18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="0"/>
+        <v>12.912799999999999</v>
+      </c>
+      <c r="F18" s="20">
+        <f>E18/100</f>
+        <v>0.12912799999999999</v>
+      </c>
+      <c r="G18" s="8">
+        <v>16.934999999999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10.609</v>
+      </c>
+      <c r="I18" s="8">
+        <v>11.750999999999999</v>
+      </c>
+      <c r="J18" s="8">
+        <v>14.269</v>
+      </c>
+      <c r="K18" s="8">
+        <v>11</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="23">
+        <f t="shared" si="3"/>
+        <v>22.830400000000001</v>
+      </c>
+      <c r="N18" s="20">
+        <f>M18/100</f>
+        <v>0.22830400000000001</v>
+      </c>
+      <c r="O18" s="8">
+        <v>21.928000000000001</v>
+      </c>
+      <c r="P18" s="8">
+        <v>21.113</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>25.919</v>
+      </c>
+      <c r="R18" s="8">
+        <v>22.602</v>
+      </c>
+      <c r="S18" s="8">
+        <v>22.59</v>
+      </c>
+      <c r="U18" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.43440325180461142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="C19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>190.80019999999999</v>
+      </c>
+      <c r="F19" s="20">
+        <f>E19/1000</f>
+        <v>0.1908002</v>
+      </c>
+      <c r="G19" s="8">
+        <v>195.29499999999999</v>
+      </c>
+      <c r="H19" s="8">
+        <v>190.23599999999999</v>
+      </c>
+      <c r="I19" s="8">
+        <v>188.833</v>
+      </c>
+      <c r="J19" s="8">
+        <v>190.262</v>
+      </c>
+      <c r="K19" s="8">
+        <v>189.375</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="23">
+        <f t="shared" si="3"/>
+        <v>238.76220000000004</v>
+      </c>
+      <c r="N19" s="20">
+        <f>M19/1000</f>
+        <v>0.23876220000000004</v>
+      </c>
+      <c r="O19" s="8">
+        <v>243.15899999999999</v>
+      </c>
+      <c r="P19" s="8">
+        <v>240.16300000000001</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>236.82900000000001</v>
+      </c>
+      <c r="R19" s="8">
+        <v>236.29300000000001</v>
+      </c>
+      <c r="S19" s="8">
+        <v>237.36699999999999</v>
+      </c>
+      <c r="U19" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.20087769337022371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="E20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="F21" s="20">
+        <f>E21*100</f>
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="23">
+        <f t="shared" ref="M21:M26" si="6">SUM(O21:S21)/5</f>
+        <v>6.1399999999999996E-2</v>
+      </c>
+      <c r="N21" s="20">
+        <f>M21*100</f>
+        <v>6.14</v>
+      </c>
+      <c r="O21" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="R21" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" ref="U21:U22" si="7">-(N21-F21)/N21</f>
+        <v>-0.48859934853420184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="C22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="0"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F22" s="20">
+        <f>E22*10</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="23">
+        <f t="shared" si="6"/>
+        <v>0.16840000000000002</v>
+      </c>
+      <c r="N22" s="20">
+        <f>M22*10</f>
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="7"/>
+        <v>-0.63657957244655583</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="F23" s="20">
+        <f>E23*1</f>
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="23">
+        <f t="shared" si="6"/>
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="N23" s="20">
+        <f>M23*1</f>
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.252</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" ref="U23:U25" si="8">(F23-N23)/F23</f>
+        <v>0.31804435483870963</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="0"/>
+        <v>3.879</v>
+      </c>
+      <c r="F24" s="20">
+        <f>E24/10</f>
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="J24" s="8">
+        <v>3.734</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="23">
+        <f t="shared" si="6"/>
+        <v>1.5875999999999999</v>
+      </c>
+      <c r="N24" s="20">
+        <f>M24/10</f>
+        <v>0.15875999999999998</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1.891</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1.526</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1.534</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1.482</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="8"/>
+        <v>0.59071925754060328</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" si="0"/>
+        <v>88.646800000000013</v>
+      </c>
+      <c r="F25" s="20">
+        <f>E25/100</f>
+        <v>0.88646800000000014</v>
+      </c>
+      <c r="G25" s="8">
+        <v>77.786000000000001</v>
+      </c>
+      <c r="H25" s="8">
+        <v>92.966999999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>106.863</v>
+      </c>
+      <c r="J25" s="8">
+        <v>84.843000000000004</v>
+      </c>
+      <c r="K25" s="8">
+        <v>80.775000000000006</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="23">
+        <f t="shared" si="6"/>
+        <v>17.806599999999996</v>
+      </c>
+      <c r="N25" s="20">
+        <f>M25/100</f>
+        <v>0.17806599999999995</v>
+      </c>
+      <c r="O25" s="8">
+        <v>16.663</v>
+      </c>
+      <c r="P25" s="8">
+        <v>15.782</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>20.300999999999998</v>
+      </c>
+      <c r="R25" s="8">
+        <v>16.472000000000001</v>
+      </c>
+      <c r="S25" s="8">
+        <v>19.815000000000001</v>
+      </c>
+      <c r="U25" s="10">
+        <f t="shared" si="8"/>
+        <v>0.799128676951678</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="C26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="23">
+        <f t="shared" si="6"/>
+        <v>171.8914</v>
+      </c>
+      <c r="N26" s="20">
+        <f>M26/1000</f>
+        <v>0.1718914</v>
+      </c>
+      <c r="O26" s="9">
+        <v>172.76400000000001</v>
+      </c>
+      <c r="P26" s="9">
+        <v>175.661</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>168.83099999999999</v>
+      </c>
+      <c r="R26" s="9">
+        <v>170.72399999999999</v>
+      </c>
+      <c r="S26" s="9">
+        <v>171.477</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Detail" sheetId="1" r:id="rId2"/>
-    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId3"/>
+    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Detail-OriginalFormula" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>Peaks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>Seconds*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Average time of 5 tests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,10 +59,6 @@
   </si>
   <si>
     <t>JoinTable #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># All input and output files are in csv format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,11 +121,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S/Million Rows</t>
+    <t>This alternative formula can result a more resonable %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S/Million Rows</t>
+    <t>Total Seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># All input and output files are in csv format.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># All input and output files are in csv format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Seconds means average time of 5 tests. Time measure covers from read input file to write output file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All input and output files are in csv format.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +173,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +219,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -218,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,6 +271,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -242,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,6 +371,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -633,517 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="6.578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="2.68359375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.68359375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.734375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="8.734375" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="9.9" customHeight="1">
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="2:10" s="29" customFormat="1" ht="19.8">
-      <c r="B2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="2:10" s="19" customFormat="1">
-      <c r="C3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="2:10" s="19" customFormat="1">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4.02E-2</v>
-      </c>
-      <c r="F5" s="20">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1.5799999999999998E-2</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.5799999999999998</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0.60696517412935314</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="C6" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>9.3800000000000008E-2</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0.93800000000000006</v>
-      </c>
-      <c r="G6" s="20">
-        <v>7.1200000000000013E-2</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.71200000000000019</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0.24093816631130049</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0.11947318908748827</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="32">
-        <v>10</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0.12343999999999999</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1.1484000000000001</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0.11484000000000001</v>
-      </c>
-      <c r="I8" s="33">
-        <v>6.9669475048606475E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="C9" s="32">
-        <v>100</v>
-      </c>
-      <c r="E9" s="20">
-        <v>11.418800000000001</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.11418800000000001</v>
-      </c>
-      <c r="G9" s="20">
-        <v>9.3134000000000015</v>
-      </c>
-      <c r="H9" s="20">
-        <v>9.3134000000000008E-2</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0.18438014502399552</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="20">
-        <v>171.8914</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0.1718914</v>
-      </c>
-      <c r="G10" s="20">
-        <v>103.752</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0.103752</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.39640959349915122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>3.42</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0.50292397660818711</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="C13" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.034</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1.5260000000000002</v>
-      </c>
-      <c r="I13" s="33">
-        <v>-0.47582205029013558</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="I14" s="33">
-        <v>-0.27814569536423861</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="32">
-        <v>10</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1.5396000000000001</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0.15396000000000001</v>
-      </c>
-      <c r="G15" s="20">
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0.22699999999999995</v>
-      </c>
-      <c r="I15" s="33">
-        <v>-0.47440893738633366</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="32">
-        <v>100</v>
-      </c>
-      <c r="E16" s="20">
-        <v>12.912799999999999</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0.12912799999999999</v>
-      </c>
-      <c r="G16" s="20">
-        <v>22.830400000000001</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0.22830400000000001</v>
-      </c>
-      <c r="I16" s="33">
-        <v>-0.76804411126943828</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="C17" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="20">
-        <v>190.80019999999999</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0.1908002</v>
-      </c>
-      <c r="G17" s="20">
-        <v>238.76220000000004</v>
-      </c>
-      <c r="H17" s="20">
-        <v>0.23876220000000004</v>
-      </c>
-      <c r="I17" s="33">
-        <v>-0.2513729021248407</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="20">
-        <v>3.1400000000000004E-2</v>
-      </c>
-      <c r="F19" s="20">
-        <v>3.1400000000000006</v>
-      </c>
-      <c r="G19" s="20">
-        <v>6.1399999999999996E-2</v>
-      </c>
-      <c r="H19" s="20">
-        <v>6.14</v>
-      </c>
-      <c r="I19" s="33">
-        <v>-0.95541401273885307</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="C20" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="20">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0.16840000000000002</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1.6840000000000002</v>
-      </c>
-      <c r="I20" s="33">
-        <v>-1.7516339869281048</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="F21" s="20">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="I21" s="33">
-        <v>0.31804435483870963</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="32">
-        <v>10</v>
-      </c>
-      <c r="E22" s="20">
-        <v>3.879</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1.5875999999999999</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.15875999999999998</v>
-      </c>
-      <c r="I22" s="33">
-        <v>0.59071925754060328</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="C23" s="32">
-        <v>100</v>
-      </c>
-      <c r="E23" s="20">
-        <v>88.646800000000013</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.88646800000000014</v>
-      </c>
-      <c r="G23" s="20">
-        <v>17.806599999999996</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0.17806599999999995</v>
-      </c>
-      <c r="I23" s="33">
-        <v>0.799128676951678</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="20">
-        <v>171.8914</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0.1718914</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1171,7 +720,7 @@
   <sheetData>
     <row r="1" spans="2:22">
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1193,12 +742,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1239,7 +788,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="13">
@@ -1279,7 +828,7 @@
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4" s="3"/>
     </row>
@@ -1291,21 +840,35 @@
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="G5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -1314,15 +877,25 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
       <c r="F6" s="19"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="19"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="3"/>
       <c r="U6" s="11"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>0.01</v>
@@ -1335,19 +908,19 @@
         <f>E7*100</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="23">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="23">
         <v>3.1E-2</v>
       </c>
       <c r="L7" s="8"/>
@@ -1359,19 +932,19 @@
         <f>M7*100</f>
         <v>1.5799999999999998</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="23">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="23">
         <v>0.01</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="23">
         <v>0.01</v>
       </c>
       <c r="U7" s="10">
@@ -1391,19 +964,19 @@
         <f>E8*10</f>
         <v>0.93800000000000006</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="23">
         <v>6.3E-2</v>
       </c>
       <c r="L8" s="8"/>
@@ -1415,19 +988,19 @@
         <f>M8*10</f>
         <v>0.71200000000000019</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="23">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="23">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="23">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="U8" s="10">
@@ -1447,19 +1020,19 @@
         <f>E9*1</f>
         <v>0.21259999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="23">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="23">
         <v>0.17100000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="23">
         <v>0.156</v>
       </c>
       <c r="L9" s="8"/>
@@ -1471,19 +1044,19 @@
         <f>M9*1</f>
         <v>0.18719999999999998</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="23">
         <v>0.16200000000000001</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="23">
         <v>0.18</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="23">
         <v>0.192</v>
       </c>
       <c r="U9" s="10">
@@ -1503,19 +1076,19 @@
         <f>E10/10</f>
         <v>0.12343999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="23">
         <v>2.173</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="23">
         <v>1.125</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="23">
         <v>0.93600000000000005</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="23">
         <v>0.92200000000000004</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="23">
         <v>1.016</v>
       </c>
       <c r="L10" s="8"/>
@@ -1527,19 +1100,19 @@
         <f>M10/10</f>
         <v>0.11484000000000001</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="23">
         <v>1.4259999999999999</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="23">
         <v>1.07</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="23">
         <v>1.129</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="23">
         <v>1.0629999999999999</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="23">
         <v>1.054</v>
       </c>
       <c r="U10" s="10">
@@ -1559,19 +1132,19 @@
         <f>E11/100</f>
         <v>0.11418800000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="23">
         <v>15.798999999999999</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="23">
         <v>9</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="23">
         <v>8.907</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="23">
         <v>13.56</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="23">
         <v>9.8279999999999994</v>
       </c>
       <c r="L11" s="8"/>
@@ -1583,19 +1156,19 @@
         <f>M11/100</f>
         <v>9.3134000000000008E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="23">
         <v>10.167999999999999</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="23">
         <v>9.1199999999999992</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="23">
         <v>8.9890000000000008</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="23">
         <v>9.09</v>
       </c>
       <c r="U11" s="10">
@@ -1615,19 +1188,19 @@
         <f>E12/1000</f>
         <v>0.1718914</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="23">
         <v>172.76400000000001</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="23">
         <v>175.661</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="23">
         <v>168.83099999999999</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="23">
         <v>170.72399999999999</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="23">
         <v>171.477</v>
       </c>
       <c r="L12" s="8"/>
@@ -1639,19 +1212,19 @@
         <f>M12/1000</f>
         <v>0.103752</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="23">
         <v>104.672</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="23">
         <v>101.31</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="23">
         <v>105.82599999999999</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="23">
         <v>103.587</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="23">
         <v>103.36499999999999</v>
       </c>
       <c r="U12" s="10">
@@ -1662,23 +1235,23 @@
     <row r="13" spans="2:22">
       <c r="E13" s="23"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="8"/>
       <c r="M13" s="23"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7">
         <v>0.01</v>
@@ -1691,19 +1264,19 @@
         <f>E14*100</f>
         <v>3.42</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="23">
         <v>3.1E-2</v>
       </c>
       <c r="L14" s="8"/>
@@ -1715,23 +1288,23 @@
         <f>M14*100</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="23">
         <v>1.4E-2</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" ref="U14:U19" si="4">(F14-N14)/F14</f>
+        <f t="shared" ref="U14" si="4">(F14-N14)/F14</f>
         <v>0.50292397660818711</v>
       </c>
     </row>
@@ -1747,19 +1320,19 @@
         <f>E15*10</f>
         <v>1.034</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="23">
         <v>0.125</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="23">
         <v>0.11</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="23">
         <v>9.4E-2</v>
       </c>
       <c r="L15" s="8"/>
@@ -1771,24 +1344,27 @@
         <f>M15*10</f>
         <v>1.5260000000000002</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="23">
         <v>0.14199999999999999</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="23">
         <v>0.20100000000000001</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="23">
         <v>0.14099999999999999</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="23">
         <v>0.13900000000000001</v>
       </c>
-      <c r="U15" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.47582205029013558</v>
+      <c r="U15" s="37">
+        <f>-(N15-F15)/N15</f>
+        <v>-0.32241153342070783</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -1803,19 +1379,19 @@
         <f>E16*1</f>
         <v>0.27179999999999999</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="23">
         <v>0.375</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="23">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="23">
         <v>0.25</v>
       </c>
       <c r="L16" s="8"/>
@@ -1827,24 +1403,24 @@
         <f>M16*1</f>
         <v>0.34740000000000004</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="23">
         <v>0.39</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="23">
         <v>0.34599999999999997</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="23">
         <v>0.33200000000000002</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="23">
         <v>0.33400000000000002</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="23">
         <v>0.33500000000000002</v>
       </c>
-      <c r="U16" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.27814569536423861</v>
+      <c r="U16" s="37">
+        <f t="shared" ref="U16:U19" si="5">-(N16-F16)/N16</f>
+        <v>-0.21761658031088096</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -1859,19 +1435,19 @@
         <f>E17/10</f>
         <v>0.15396000000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="23">
         <v>2.141</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="23">
         <v>1.359</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="23">
         <v>1.385</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="23">
         <v>1.36</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="23">
         <v>1.4530000000000001</v>
       </c>
       <c r="L17" s="8"/>
@@ -1883,24 +1459,24 @@
         <f>M17/10</f>
         <v>0.22699999999999995</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="23">
         <v>2.6059999999999999</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="23">
         <v>2.177</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="23">
         <v>2.1890000000000001</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="23">
         <v>2.242</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="23">
         <v>2.1360000000000001</v>
       </c>
-      <c r="U17" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.47440893738633366</v>
+      <c r="U17" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.32176211453744474</v>
       </c>
     </row>
     <row r="18" spans="2:21">
@@ -1915,19 +1491,19 @@
         <f>E18/100</f>
         <v>0.12912799999999999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="23">
         <v>16.934999999999999</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="23">
         <v>10.609</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="23">
         <v>11.750999999999999</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="23">
         <v>14.269</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="23">
         <v>11</v>
       </c>
       <c r="L18" s="8"/>
@@ -1939,24 +1515,24 @@
         <f>M18/100</f>
         <v>0.22830400000000001</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="23">
         <v>21.928000000000001</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="23">
         <v>21.113</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="23">
         <v>25.919</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="23">
         <v>22.602</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="23">
         <v>22.59</v>
       </c>
-      <c r="U18" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.76804411126943828</v>
+      <c r="U18" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.43440325180461142</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -1971,19 +1547,19 @@
         <f>E19/1000</f>
         <v>0.1908002</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="23">
         <v>195.29499999999999</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="23">
         <v>190.23599999999999</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="23">
         <v>188.833</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="23">
         <v>190.262</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="23">
         <v>189.375</v>
       </c>
       <c r="L19" s="8"/>
@@ -1995,46 +1571,46 @@
         <f>M19/1000</f>
         <v>0.23876220000000004</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="23">
         <v>243.15899999999999</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="23">
         <v>240.16300000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="23">
         <v>236.82900000000001</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="23">
         <v>236.29300000000001</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="23">
         <v>237.36699999999999</v>
       </c>
-      <c r="U19" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.2513729021248407</v>
+      <c r="U19" s="37">
+        <f t="shared" si="5"/>
+        <v>-0.20087769337022371</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="E20" s="23"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="8"/>
       <c r="M20" s="23"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7">
         <v>0.01</v>
@@ -2047,48 +1623,48 @@
         <f>E21*100</f>
         <v>3.1400000000000006</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="23">
         <v>6.3E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="23">
-        <f t="shared" ref="M21:M26" si="5">SUM(O21:S21)/5</f>
+        <f t="shared" ref="M21:M26" si="6">SUM(O21:S21)/5</f>
         <v>6.1399999999999996E-2</v>
       </c>
       <c r="N21" s="20">
         <f>M21*100</f>
         <v>6.14</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="23">
         <v>0.06</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="23">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="23">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="U21" s="10">
-        <f t="shared" ref="U21:U25" si="6">(F21-N21)/F21</f>
-        <v>-0.95541401273885307</v>
+      <c r="U21" s="37">
+        <f t="shared" ref="U21:U22" si="7">-(N21-F21)/N21</f>
+        <v>-0.48859934853420184</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -2103,48 +1679,48 @@
         <f>E22*10</f>
         <v>0.61199999999999999</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="23">
         <v>5.5E-2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="23">
         <v>6.2E-2</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="23">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16840000000000002</v>
       </c>
       <c r="N22" s="20">
         <f>M22*10</f>
         <v>1.6840000000000002</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="23">
         <v>0.189</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="23">
         <v>0.156</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="23">
         <v>0.16600000000000001</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="23">
         <v>0.16600000000000001</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="U22" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.7516339869281048</v>
+      <c r="U22" s="37">
+        <f t="shared" si="7"/>
+        <v>-0.63657957244655583</v>
       </c>
     </row>
     <row r="23" spans="2:21">
@@ -2159,47 +1735,47 @@
         <f>E23*1</f>
         <v>0.39679999999999999</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="23">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="23">
         <v>0.35899999999999999</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="23">
         <v>0.375</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27060000000000001</v>
       </c>
       <c r="N23" s="20">
         <f>M23*1</f>
         <v>0.27060000000000001</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="23">
         <v>0.35199999999999998</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="23">
         <v>0.25</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="23">
         <v>0.252</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U23:U25" si="8">(F23-N23)/F23</f>
         <v>0.31804435483870963</v>
       </c>
     </row>
@@ -2215,47 +1791,47 @@
         <f>E24/10</f>
         <v>0.38790000000000002</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="23">
         <v>4.2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="23">
         <v>3.86</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="23">
         <v>3.9449999999999998</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="23">
         <v>3.734</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="23">
         <v>3.6560000000000001</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5875999999999999</v>
       </c>
       <c r="N24" s="20">
         <f>M24/10</f>
         <v>0.15875999999999998</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="23">
         <v>1.891</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="23">
         <v>1.5049999999999999</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="23">
         <v>1.526</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="23">
         <v>1.534</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="23">
         <v>1.482</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.59071925754060328</v>
       </c>
     </row>
@@ -2271,47 +1847,47 @@
         <f>E25/100</f>
         <v>0.88646800000000014</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="23">
         <v>77.786000000000001</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="23">
         <v>92.966999999999999</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="23">
         <v>106.863</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="23">
         <v>84.843000000000004</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="23">
         <v>80.775000000000006</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.806599999999996</v>
       </c>
       <c r="N25" s="20">
         <f>M25/100</f>
         <v>0.17806599999999995</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="23">
         <v>16.663</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="23">
         <v>15.782</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="23">
         <v>20.300999999999998</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="23">
         <v>16.472000000000001</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="23">
         <v>19.815000000000001</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.799128676951678</v>
       </c>
     </row>
@@ -2325,47 +1901,47 @@
       <c r="F26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171.8914</v>
       </c>
       <c r="N26" s="20">
         <f>M26/1000</f>
         <v>0.1718914</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="24">
         <v>172.76400000000001</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="24">
         <v>175.661</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="24">
         <v>168.83099999999999</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="24">
         <v>170.72399999999999</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="24">
         <v>171.477</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -2386,8 +1962,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="3" t="s">
-        <v>5</v>
+      <c r="B28" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2407,25 +1983,13 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="2:21">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2443,6 +2007,9 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="2:21">
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2476,10 +2043,29 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
+    <row r="33" spans="5:19">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,15 +2073,592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="2.68359375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.68359375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.734375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.734375" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="9.9" customHeight="1">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="2:11" s="29" customFormat="1" ht="19.8">
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1">
+      <c r="C3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="19" customFormat="1">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0.60696517412935314</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.60696517412935314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>9.3800000000000008E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.93800000000000006</v>
+      </c>
+      <c r="G6" s="20">
+        <v>7.1200000000000013E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.71200000000000019</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0.24093816631130049</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.24093816631130049</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0.11947318908748827</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.11947318908748827</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="32">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.12343999999999999</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.11484000000000001</v>
+      </c>
+      <c r="I8" s="33">
+        <v>6.9669475048606475E-2</v>
+      </c>
+      <c r="J8" s="33">
+        <v>6.9669475048606475E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="32">
+        <v>100</v>
+      </c>
+      <c r="E9" s="20">
+        <v>11.418800000000001</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.11418800000000001</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9.3134000000000015</v>
+      </c>
+      <c r="H9" s="20">
+        <v>9.3134000000000008E-2</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.18438014502399552</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.18438014502399552</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.1718914</v>
+      </c>
+      <c r="G10" s="20">
+        <v>103.752</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.103752</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.39640959349915122</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.39640959349915122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.42</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0.50292397660818711</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.50292397660818711</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1.034</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.5260000000000002</v>
+      </c>
+      <c r="I13" s="33">
+        <v>-0.47582205029013558</v>
+      </c>
+      <c r="J13" s="37">
+        <v>-0.32241153342070783</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="I14" s="33">
+        <v>-0.27814569536423861</v>
+      </c>
+      <c r="J14" s="37">
+        <v>-0.21761658031088096</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="32">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1.5396000000000001</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.15396000000000001</v>
+      </c>
+      <c r="G15" s="20">
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.22699999999999995</v>
+      </c>
+      <c r="I15" s="33">
+        <v>-0.47440893738633366</v>
+      </c>
+      <c r="J15" s="37">
+        <v>-0.32176211453744474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="32">
+        <v>100</v>
+      </c>
+      <c r="E16" s="20">
+        <v>12.912799999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.12912799999999999</v>
+      </c>
+      <c r="G16" s="20">
+        <v>22.830400000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.22830400000000001</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-0.76804411126943828</v>
+      </c>
+      <c r="J16" s="37">
+        <v>-0.43440325180461142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="C17" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="20">
+        <v>190.80019999999999</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.1908002</v>
+      </c>
+      <c r="G17" s="20">
+        <v>238.76220000000004</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.23876220000000004</v>
+      </c>
+      <c r="I17" s="33">
+        <v>-0.2513729021248407</v>
+      </c>
+      <c r="J17" s="37">
+        <v>-0.20087769337022371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="G19" s="20">
+        <v>6.1399999999999996E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>6.14</v>
+      </c>
+      <c r="I19" s="33">
+        <v>-0.95541401273885307</v>
+      </c>
+      <c r="J19" s="37">
+        <v>-0.48859934853420184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.16840000000000002</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="I20" s="33">
+        <v>-1.7516339869281048</v>
+      </c>
+      <c r="J20" s="37">
+        <v>-0.63657957244655583</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0.31804435483870963</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0.31804435483870963</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.879</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1.5875999999999999</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.15875999999999998</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0.59071925754060328</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0.59071925754060328</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="E23" s="20">
+        <v>88.646800000000013</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.88646800000000014</v>
+      </c>
+      <c r="G23" s="20">
+        <v>17.806599999999996</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.17806599999999995</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.799128676951678</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0.799128676951678</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.1718914</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2523,7 +2686,7 @@
   <sheetData>
     <row r="1" spans="2:22">
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2545,12 +2708,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2591,7 +2754,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="13">
@@ -2631,7 +2794,7 @@
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4" s="3"/>
     </row>
@@ -2643,21 +2806,35 @@
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="G5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="O5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -2666,15 +2843,25 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
       <c r="F6" s="19"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="19"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="3"/>
       <c r="U6" s="11"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>0.01</v>
@@ -2687,19 +2874,19 @@
         <f>E7*100</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="23">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="23">
         <v>3.1E-2</v>
       </c>
       <c r="L7" s="8"/>
@@ -2711,19 +2898,19 @@
         <f>M7*100</f>
         <v>1.5799999999999998</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="23">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="23">
         <v>0.01</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="23">
         <v>0.01</v>
       </c>
       <c r="U7" s="10">
@@ -2743,19 +2930,19 @@
         <f>E8*10</f>
         <v>0.93800000000000006</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="23">
         <v>7.8E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="23">
         <v>6.3E-2</v>
       </c>
       <c r="L8" s="8"/>
@@ -2767,19 +2954,19 @@
         <f>M8*10</f>
         <v>0.71200000000000019</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="23">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="23">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="23">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="U8" s="10">
@@ -2799,19 +2986,19 @@
         <f>E9*1</f>
         <v>0.21259999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="23">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="23">
         <v>0.17100000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="23">
         <v>0.156</v>
       </c>
       <c r="L9" s="8"/>
@@ -2823,19 +3010,19 @@
         <f>M9*1</f>
         <v>0.18719999999999998</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="23">
         <v>0.23699999999999999</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="23">
         <v>0.16200000000000001</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="23">
         <v>0.18</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="23">
         <v>0.192</v>
       </c>
       <c r="U9" s="10">
@@ -2855,19 +3042,19 @@
         <f>E10/10</f>
         <v>0.12343999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="23">
         <v>2.173</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="23">
         <v>1.125</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="23">
         <v>0.93600000000000005</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="23">
         <v>0.92200000000000004</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="23">
         <v>1.016</v>
       </c>
       <c r="L10" s="8"/>
@@ -2879,19 +3066,19 @@
         <f>M10/10</f>
         <v>0.11484000000000001</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="23">
         <v>1.4259999999999999</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="23">
         <v>1.07</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="23">
         <v>1.129</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="23">
         <v>1.0629999999999999</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="23">
         <v>1.054</v>
       </c>
       <c r="U10" s="10">
@@ -2911,19 +3098,19 @@
         <f>E11/100</f>
         <v>0.11418800000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="23">
         <v>15.798999999999999</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="23">
         <v>9</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="23">
         <v>8.907</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="23">
         <v>13.56</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="23">
         <v>9.8279999999999994</v>
       </c>
       <c r="L11" s="8"/>
@@ -2935,19 +3122,19 @@
         <f>M11/100</f>
         <v>9.3134000000000008E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="23">
         <v>10.167999999999999</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="23">
         <v>9.1199999999999992</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="23">
         <v>8.9890000000000008</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="23">
         <v>9.09</v>
       </c>
       <c r="U11" s="10">
@@ -2967,19 +3154,19 @@
         <f>E12/1000</f>
         <v>0.1718914</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="23">
         <v>172.76400000000001</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="23">
         <v>175.661</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="23">
         <v>168.83099999999999</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="23">
         <v>170.72399999999999</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="23">
         <v>171.477</v>
       </c>
       <c r="L12" s="8"/>
@@ -2991,19 +3178,19 @@
         <f>M12/1000</f>
         <v>0.103752</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="23">
         <v>104.672</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="23">
         <v>101.31</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="23">
         <v>105.82599999999999</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="23">
         <v>103.587</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="23">
         <v>103.36499999999999</v>
       </c>
       <c r="U12" s="10">
@@ -3014,23 +3201,23 @@
     <row r="13" spans="2:22">
       <c r="E13" s="23"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="8"/>
       <c r="M13" s="23"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7">
         <v>0.01</v>
@@ -3043,19 +3230,19 @@
         <f>E14*100</f>
         <v>3.42</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="23">
         <v>3.1E-2</v>
       </c>
       <c r="L14" s="8"/>
@@ -3067,23 +3254,23 @@
         <f>M14*100</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="23">
         <v>1.4E-2</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" ref="U14" si="4">(F14-N14)/F14</f>
+        <f t="shared" ref="U14:U19" si="4">(F14-N14)/F14</f>
         <v>0.50292397660818711</v>
       </c>
     </row>
@@ -3099,19 +3286,19 @@
         <f>E15*10</f>
         <v>1.034</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="23">
         <v>0.125</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="23">
         <v>0.11</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="23">
         <v>9.4E-2</v>
       </c>
       <c r="L15" s="8"/>
@@ -3123,24 +3310,24 @@
         <f>M15*10</f>
         <v>1.5260000000000002</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="23">
         <v>0.14199999999999999</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="23">
         <v>0.20100000000000001</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="23">
         <v>0.14099999999999999</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="23">
         <v>0.13900000000000001</v>
       </c>
-      <c r="U15" s="37">
-        <f>-(N15-F15)/N15</f>
-        <v>-0.32241153342070783</v>
+      <c r="U15" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.47582205029013558</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -3155,19 +3342,19 @@
         <f>E16*1</f>
         <v>0.27179999999999999</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="23">
         <v>0.375</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="23">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="23">
         <v>0.25</v>
       </c>
       <c r="L16" s="8"/>
@@ -3179,24 +3366,24 @@
         <f>M16*1</f>
         <v>0.34740000000000004</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="23">
         <v>0.39</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="23">
         <v>0.34599999999999997</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="23">
         <v>0.33200000000000002</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="23">
         <v>0.33400000000000002</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="23">
         <v>0.33500000000000002</v>
       </c>
-      <c r="U16" s="37">
-        <f t="shared" ref="U16:U19" si="5">-(N16-F16)/N16</f>
-        <v>-0.21761658031088096</v>
+      <c r="U16" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.27814569536423861</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -3211,19 +3398,19 @@
         <f>E17/10</f>
         <v>0.15396000000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="23">
         <v>2.141</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="23">
         <v>1.359</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="23">
         <v>1.385</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="23">
         <v>1.36</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="23">
         <v>1.4530000000000001</v>
       </c>
       <c r="L17" s="8"/>
@@ -3235,24 +3422,24 @@
         <f>M17/10</f>
         <v>0.22699999999999995</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="23">
         <v>2.6059999999999999</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="23">
         <v>2.177</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="23">
         <v>2.1890000000000001</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="23">
         <v>2.242</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="23">
         <v>2.1360000000000001</v>
       </c>
-      <c r="U17" s="37">
-        <f t="shared" si="5"/>
-        <v>-0.32176211453744474</v>
+      <c r="U17" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.47440893738633366</v>
       </c>
     </row>
     <row r="18" spans="2:21">
@@ -3267,19 +3454,19 @@
         <f>E18/100</f>
         <v>0.12912799999999999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="23">
         <v>16.934999999999999</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="23">
         <v>10.609</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="23">
         <v>11.750999999999999</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="23">
         <v>14.269</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="23">
         <v>11</v>
       </c>
       <c r="L18" s="8"/>
@@ -3291,24 +3478,24 @@
         <f>M18/100</f>
         <v>0.22830400000000001</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="23">
         <v>21.928000000000001</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="23">
         <v>21.113</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="23">
         <v>25.919</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="23">
         <v>22.602</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="23">
         <v>22.59</v>
       </c>
-      <c r="U18" s="37">
-        <f t="shared" si="5"/>
-        <v>-0.43440325180461142</v>
+      <c r="U18" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.76804411126943828</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -3323,19 +3510,19 @@
         <f>E19/1000</f>
         <v>0.1908002</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="23">
         <v>195.29499999999999</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="23">
         <v>190.23599999999999</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="23">
         <v>188.833</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="23">
         <v>190.262</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="23">
         <v>189.375</v>
       </c>
       <c r="L19" s="8"/>
@@ -3347,46 +3534,46 @@
         <f>M19/1000</f>
         <v>0.23876220000000004</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="23">
         <v>243.15899999999999</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="23">
         <v>240.16300000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="23">
         <v>236.82900000000001</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="23">
         <v>236.29300000000001</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="23">
         <v>237.36699999999999</v>
       </c>
-      <c r="U19" s="37">
-        <f t="shared" si="5"/>
-        <v>-0.20087769337022371</v>
+      <c r="U19" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.2513729021248407</v>
       </c>
     </row>
     <row r="20" spans="2:21">
       <c r="E20" s="23"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="8"/>
       <c r="M20" s="23"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7">
         <v>0.01</v>
@@ -3399,48 +3586,48 @@
         <f>E21*100</f>
         <v>3.1400000000000006</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="23">
         <v>6.3E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="23">
-        <f t="shared" ref="M21:M26" si="6">SUM(O21:S21)/5</f>
+        <f t="shared" ref="M21:M26" si="5">SUM(O21:S21)/5</f>
         <v>6.1399999999999996E-2</v>
       </c>
       <c r="N21" s="20">
         <f>M21*100</f>
         <v>6.14</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="23">
         <v>0.06</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="23">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="23">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="U21" s="37">
-        <f t="shared" ref="U21:U22" si="7">-(N21-F21)/N21</f>
-        <v>-0.48859934853420184</v>
+      <c r="U21" s="10">
+        <f t="shared" ref="U21:U25" si="6">(F21-N21)/F21</f>
+        <v>-0.95541401273885307</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -3455,48 +3642,48 @@
         <f>E22*10</f>
         <v>0.61199999999999999</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="23">
         <v>5.5E-2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="23">
         <v>6.2E-2</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="23">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.16840000000000002</v>
       </c>
       <c r="N22" s="20">
         <f>M22*10</f>
         <v>1.6840000000000002</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="23">
         <v>0.189</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="23">
         <v>0.156</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="23">
         <v>0.16600000000000001</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="23">
         <v>0.16600000000000001</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="U22" s="37">
-        <f t="shared" si="7"/>
-        <v>-0.63657957244655583</v>
+      <c r="U22" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.7516339869281048</v>
       </c>
     </row>
     <row r="23" spans="2:21">
@@ -3511,47 +3698,47 @@
         <f>E23*1</f>
         <v>0.39679999999999999</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="23">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="23">
         <v>0.35899999999999999</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="23">
         <v>0.375</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.27060000000000001</v>
       </c>
       <c r="N23" s="20">
         <f>M23*1</f>
         <v>0.27060000000000001</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="23">
         <v>0.35199999999999998</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="23">
         <v>0.26100000000000001</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="23">
         <v>0.25</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="23">
         <v>0.252</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23:U25" si="8">(F23-N23)/F23</f>
+        <f t="shared" si="6"/>
         <v>0.31804435483870963</v>
       </c>
     </row>
@@ -3567,47 +3754,47 @@
         <f>E24/10</f>
         <v>0.38790000000000002</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="23">
         <v>4.2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="23">
         <v>3.86</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="23">
         <v>3.9449999999999998</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="23">
         <v>3.734</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="23">
         <v>3.6560000000000001</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5875999999999999</v>
       </c>
       <c r="N24" s="20">
         <f>M24/10</f>
         <v>0.15875999999999998</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="23">
         <v>1.891</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="23">
         <v>1.5049999999999999</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="23">
         <v>1.526</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="23">
         <v>1.534</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="23">
         <v>1.482</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.59071925754060328</v>
       </c>
     </row>
@@ -3623,47 +3810,47 @@
         <f>E25/100</f>
         <v>0.88646800000000014</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="23">
         <v>77.786000000000001</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="23">
         <v>92.966999999999999</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="23">
         <v>106.863</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="23">
         <v>84.843000000000004</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="23">
         <v>80.775000000000006</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.806599999999996</v>
       </c>
       <c r="N25" s="20">
         <f>M25/100</f>
         <v>0.17806599999999995</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="23">
         <v>16.663</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="23">
         <v>15.782</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="23">
         <v>20.300999999999998</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="23">
         <v>16.472000000000001</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="23">
         <v>19.815000000000001</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.799128676951678</v>
       </c>
     </row>
@@ -3677,47 +3864,47 @@
       <c r="F26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>171.8914</v>
       </c>
       <c r="N26" s="20">
         <f>M26/1000</f>
         <v>0.1718914</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="24">
         <v>172.76400000000001</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="24">
         <v>175.661</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="24">
         <v>168.83099999999999</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="24">
         <v>170.72399999999999</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="24">
         <v>171.477</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -3738,8 +3925,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="3" t="s">
-        <v>5</v>
+      <c r="B28" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -3759,25 +3946,13 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="2:21">
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -3795,6 +3970,9 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="2:21">
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -3829,9 +4007,11 @@
       <c r="S32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -362,23 +362,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -692,7 +692,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -787,10 +787,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -807,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -853,7 +853,7 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
@@ -1962,7 +1962,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="8"/>
@@ -2111,14 +2111,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="36" t="s">
         <v>20</v>
       </c>
@@ -2134,11 +2134,11 @@
       <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="J25" s="28"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="20"/>
@@ -2753,10 +2753,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -2819,7 +2819,7 @@
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
@@ -3925,7 +3925,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="39" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="8"/>

--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Detail-OriginalFormula" sheetId="1" r:id="rId3"/>
+    <sheet name="Distinct" sheetId="5" r:id="rId1"/>
+    <sheet name="GroupBy" sheetId="6" r:id="rId2"/>
+    <sheet name="JoinTable" sheetId="7" r:id="rId3"/>
+    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="Detail-OriginalFormula" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Peaks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +167,48 @@
     <t>All input and output files are in csv format.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1000M</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>0.1M</t>
+  </si>
+  <si>
+    <t>0.01M</t>
+  </si>
+  <si>
+    <t>Peaks</t>
+  </si>
+  <si>
+    <t>Polars</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>GroupBy</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>JoinTable</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +218,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +270,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -281,13 +339,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,9 +438,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,6 +469,1476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distinct: No. of Seconds Per Each MillionRow Equvalent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21539763113367177"/>
+          <c:y val="5.357967667436489E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distinct!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peaks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distinct!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distinct!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C5B6-4C41-A591-C14A08EAF55C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distinct!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distinct!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distinct!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5B6-4C41-A591-C14A08EAF55C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="192041344"/>
+        <c:axId val="192042880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192041344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192042880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192042880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192041344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GroupBy: No. of Seconds Per Each MillionRow Equvalent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21539763113367177"/>
+          <c:y val="5.357967667436489E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GroupBy!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peaks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GroupBy!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GroupBy!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B9C-4FF5-8389-7169361275C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GroupBy!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GroupBy!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GroupBy!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B9C-4FF5-8389-7169361275C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="181076352"/>
+        <c:axId val="181077888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181076352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181077888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181077888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181076352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JoinTable: No. of Seconds Per Each MillionRow Equvalent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21539763113367177"/>
+          <c:y val="5.357967667436489E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JoinTable!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peaks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JoinTable!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JoinTable!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC11-4B18-BD33-CA0C3A2E781B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JoinTable!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JoinTable!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JoinTable!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC11-4B18-BD33-CA0C3A2E781B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="181158272"/>
+        <c:axId val="181159808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181158272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181159808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181159808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181158272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72AFE48D-DF09-88DB-28B9-C7CAD58D2F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769F4D6D-0363-431A-847E-18B138ED05E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68338CDB-6928-4D06-92FB-134881FBF85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="830580"/>
+          <a:ext cx="2423160" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Polars fail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> to join billion-row table</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,9 +2228,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="45"/>
+    <col min="2" max="2" width="8.83984375" style="47"/>
+    <col min="3" max="13" width="8.83984375" style="45"/>
+    <col min="14" max="17" width="8.83984375" style="46"/>
+    <col min="18" max="16384" width="8.83984375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:19">
+      <c r="N1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19">
+      <c r="N2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="46">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19">
+      <c r="N3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="46">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19">
+      <c r="N4" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="46">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19">
+      <c r="N5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.123</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19">
+      <c r="N6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0.114</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19">
+      <c r="N7" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19">
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10" spans="14:19">
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="14:19">
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="14:19">
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" spans="14:19">
+      <c r="S13" s="47"/>
+    </row>
+    <row r="14" spans="14:19">
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" spans="14:19">
+      <c r="S15" s="47"/>
+    </row>
+    <row r="16" spans="14:19">
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17" spans="19:20">
+      <c r="S17" s="47"/>
+    </row>
+    <row r="18" spans="19:20">
+      <c r="S18" s="47"/>
+    </row>
+    <row r="19" spans="19:20">
+      <c r="S19" s="47"/>
+    </row>
+    <row r="20" spans="19:20">
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="45"/>
+    <col min="2" max="2" width="8.83984375" style="47"/>
+    <col min="3" max="13" width="8.83984375" style="45"/>
+    <col min="14" max="17" width="8.83984375" style="46"/>
+    <col min="18" max="16384" width="8.83984375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:19">
+      <c r="N1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19">
+      <c r="N2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="46">
+        <v>3.42</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19">
+      <c r="N3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="46">
+        <v>1.034</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19">
+      <c r="N4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="46">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19">
+      <c r="N5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.154</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19">
+      <c r="N6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0.129</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19">
+      <c r="N7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.191</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19">
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10" spans="14:19">
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="14:19">
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="14:19">
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" spans="14:19">
+      <c r="S13" s="47"/>
+    </row>
+    <row r="14" spans="14:19">
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" spans="14:19">
+      <c r="S15" s="47"/>
+    </row>
+    <row r="16" spans="14:19">
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17" spans="19:20">
+      <c r="S17" s="47"/>
+    </row>
+    <row r="18" spans="19:20">
+      <c r="S18" s="47"/>
+    </row>
+    <row r="19" spans="19:20">
+      <c r="S19" s="47"/>
+    </row>
+    <row r="20" spans="19:20">
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="45"/>
+    <col min="2" max="2" width="8.83984375" style="47"/>
+    <col min="3" max="13" width="8.83984375" style="45"/>
+    <col min="14" max="18" width="8.83984375" style="46"/>
+    <col min="19" max="16384" width="8.83984375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:19">
+      <c r="N1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19">
+      <c r="N2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="46">
+        <v>3.14</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19">
+      <c r="N3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="46">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>1.6839999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19">
+      <c r="N4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="46">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19">
+      <c r="N5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19">
+      <c r="N6" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19">
+      <c r="N7" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19">
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10" spans="14:19">
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="14:19">
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="14:19">
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" spans="14:19">
+      <c r="S13" s="47"/>
+    </row>
+    <row r="14" spans="14:19">
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" spans="14:19">
+      <c r="S15" s="47"/>
+    </row>
+    <row r="16" spans="14:19">
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17" spans="19:20">
+      <c r="S17" s="47"/>
+    </row>
+    <row r="18" spans="19:20">
+      <c r="S18" s="47"/>
+    </row>
+    <row r="19" spans="19:20">
+      <c r="S19" s="47"/>
+    </row>
+    <row r="20" spans="19:20">
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2073,12 +4093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
@@ -2650,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V32"/>
   <sheetViews>

--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -81,10 +81,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polars Version: 0.17.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +204,10 @@
   </si>
   <si>
     <t>JoinTable</t>
+  </si>
+  <si>
+    <t>Polars Version: 0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,6 +426,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,18 +450,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -710,11 +710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="192041344"/>
-        <c:axId val="192042880"/>
+        <c:axId val="253600512"/>
+        <c:axId val="253602048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192041344"/>
+        <c:axId val="253600512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +757,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192042880"/>
+        <c:crossAx val="253602048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192042880"/>
+        <c:axId val="253602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +816,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192041344"/>
+        <c:crossAx val="253600512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,11 +1136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="181076352"/>
-        <c:axId val="181077888"/>
+        <c:axId val="253042688"/>
+        <c:axId val="253044224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181076352"/>
+        <c:axId val="253042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1183,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181077888"/>
+        <c:crossAx val="253044224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181077888"/>
+        <c:axId val="253044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1242,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181076352"/>
+        <c:crossAx val="253042688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,11 +1562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="181158272"/>
-        <c:axId val="181159808"/>
+        <c:axId val="253209984"/>
+        <c:axId val="253211776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181158272"/>
+        <c:axId val="253209984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1609,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181159808"/>
+        <c:crossAx val="253211776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181159808"/>
+        <c:axId val="253211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1668,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181158272"/>
+        <c:crossAx val="253209984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,7 +1769,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72AFE48D-DF09-88DB-28B9-C7CAD58D2F80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AFE48D-DF09-88DB-28B9-C7CAD58D2F80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769F4D6D-0363-431A-847E-18B138ED05E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769F4D6D-0363-431A-847E-18B138ED05E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1855,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68338CDB-6928-4D06-92FB-134881FBF85D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68338CDB-6928-4D06-92FB-134881FBF85D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,147 +2236,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="45"/>
-    <col min="2" max="2" width="8.83984375" style="47"/>
-    <col min="3" max="13" width="8.83984375" style="45"/>
-    <col min="14" max="17" width="8.83984375" style="46"/>
-    <col min="18" max="16384" width="8.83984375" style="45"/>
+    <col min="1" max="1" width="8.83984375" style="41"/>
+    <col min="2" max="2" width="8.83984375" style="43"/>
+    <col min="3" max="13" width="8.83984375" style="41"/>
+    <col min="14" max="17" width="8.83984375" style="42"/>
+    <col min="18" max="16384" width="8.83984375" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
-      <c r="N1" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="45" t="s">
         <v>41</v>
       </c>
+      <c r="Q1" s="45" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="14:19">
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="42">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19">
+      <c r="N3" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="42">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19">
+      <c r="N4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="42">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19">
+      <c r="N5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="42">
+        <v>0.123</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19">
+      <c r="N6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="46">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="Q2" s="46">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="3" spans="14:19">
-      <c r="N3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="46">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="Q3" s="46">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="14:19">
-      <c r="N4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="46">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="Q4" s="46">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="5" spans="14:19">
-      <c r="N5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="46">
-        <v>0.123</v>
-      </c>
-      <c r="Q5" s="46">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="6" spans="14:19">
-      <c r="N6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="46">
+      <c r="P6" s="42">
         <v>0.114</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="42">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="14:19">
-      <c r="N7" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="48" t="s">
+      <c r="N7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="46">
+      <c r="O7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="42">
         <v>0.17199999999999999</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="42">
         <v>0.104</v>
       </c>
     </row>
     <row r="9" spans="14:19">
-      <c r="S9" s="47"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="14:19">
-      <c r="S10" s="47"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="14:19">
-      <c r="S11" s="47"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="14:19">
-      <c r="S12" s="47"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="14:19">
-      <c r="S13" s="47"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="14:19">
-      <c r="S14" s="47"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="14:19">
-      <c r="S15" s="47"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="14:19">
-      <c r="S16" s="47"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="19:20">
-      <c r="S17" s="47"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="19:20">
-      <c r="S18" s="47"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="19:20">
-      <c r="S19" s="47"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="19:20">
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2395,147 +2395,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="45"/>
-    <col min="2" max="2" width="8.83984375" style="47"/>
-    <col min="3" max="13" width="8.83984375" style="45"/>
-    <col min="14" max="17" width="8.83984375" style="46"/>
-    <col min="18" max="16384" width="8.83984375" style="45"/>
+    <col min="1" max="1" width="8.83984375" style="41"/>
+    <col min="2" max="2" width="8.83984375" style="43"/>
+    <col min="3" max="13" width="8.83984375" style="41"/>
+    <col min="14" max="17" width="8.83984375" style="42"/>
+    <col min="18" max="16384" width="8.83984375" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19">
+      <c r="N2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="14:19">
-      <c r="N2" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="46">
+      <c r="O2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="42">
         <v>3.42</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="42">
         <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="14:19">
-      <c r="N3" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="46">
+      <c r="N3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="42">
         <v>1.034</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="42">
         <v>1.526</v>
       </c>
     </row>
     <row r="4" spans="14:19">
-      <c r="N4" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="46">
+      <c r="N4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="42">
         <v>0.27200000000000002</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="42">
         <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="5" spans="14:19">
-      <c r="N5" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="46">
+      <c r="N5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="42">
         <v>0.154</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="42">
         <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="6" spans="14:19">
-      <c r="N6" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="46">
+      <c r="N6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="42">
         <v>0.129</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="42">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="7" spans="14:19">
-      <c r="N7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="46">
+      <c r="N7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="42">
         <v>0.191</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="42">
         <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="9" spans="14:19">
-      <c r="S9" s="47"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="14:19">
-      <c r="S10" s="47"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="14:19">
-      <c r="S11" s="47"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="14:19">
-      <c r="S12" s="47"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="14:19">
-      <c r="S13" s="47"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="14:19">
-      <c r="S14" s="47"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="14:19">
-      <c r="S15" s="47"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="14:19">
-      <c r="S16" s="47"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="19:20">
-      <c r="S17" s="47"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="19:20">
-      <c r="S18" s="47"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="19:20">
-      <c r="S19" s="47"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="19:20">
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2554,147 +2554,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="45"/>
-    <col min="2" max="2" width="8.83984375" style="47"/>
-    <col min="3" max="13" width="8.83984375" style="45"/>
-    <col min="14" max="18" width="8.83984375" style="46"/>
-    <col min="19" max="16384" width="8.83984375" style="45"/>
+    <col min="1" max="1" width="8.83984375" style="41"/>
+    <col min="2" max="2" width="8.83984375" style="43"/>
+    <col min="3" max="13" width="8.83984375" style="41"/>
+    <col min="14" max="18" width="8.83984375" style="42"/>
+    <col min="19" max="16384" width="8.83984375" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
-      <c r="N1" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="45" t="s">
         <v>41</v>
       </c>
+      <c r="Q1" s="45" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="14:19">
-      <c r="N2" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="46">
+      <c r="N2" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="42">
         <v>3.14</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="42">
         <v>6.14</v>
       </c>
     </row>
     <row r="3" spans="14:19">
-      <c r="N3" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="46">
+      <c r="N3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="42">
         <v>0.61199999999999999</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="42">
         <v>1.6839999999999999</v>
       </c>
     </row>
     <row r="4" spans="14:19">
-      <c r="N4" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="46">
+      <c r="N4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="42">
         <v>0.39700000000000002</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="42">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="5" spans="14:19">
-      <c r="N5" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="46">
+      <c r="N5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="42">
         <v>0.38800000000000001</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="42">
         <v>0.159</v>
       </c>
     </row>
     <row r="6" spans="14:19">
-      <c r="N6" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="46">
+      <c r="N6" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="42">
         <v>0.88600000000000001</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="42">
         <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="7" spans="14:19">
-      <c r="N7" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="48" t="s">
+      <c r="N7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="O7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="42">
         <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="9" spans="14:19">
-      <c r="S9" s="47"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="14:19">
-      <c r="S10" s="47"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="14:19">
-      <c r="S11" s="47"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="14:19">
-      <c r="S12" s="47"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="14:19">
-      <c r="S13" s="47"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="14:19">
-      <c r="S14" s="47"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="14:19">
-      <c r="S15" s="47"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="14:19">
-      <c r="S16" s="47"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="19:20">
-      <c r="S17" s="47"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="19:20">
-      <c r="S18" s="47"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="19:20">
-      <c r="S19" s="47"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="19:20">
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2712,7 +2712,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2762,12 +2762,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2807,10 +2807,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -2827,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="47"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -2864,28 +2864,28 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="G5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
       <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="O5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
         <v>5</v>
@@ -3384,7 +3384,7 @@
         <v>-0.32241153342070783</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -3983,7 +3983,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -4003,12 +4003,12 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -4128,42 +4128,42 @@
         <v>2</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="19" customFormat="1">
       <c r="C3" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="F3" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="19" customFormat="1">
@@ -4174,7 +4174,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="32">
         <v>0.01</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="32">
         <v>0.01</v>
@@ -4369,7 +4369,7 @@
         <v>-0.32241153342070783</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -4473,7 +4473,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="32">
         <v>0.01</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4678,7 +4678,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4728,12 +4728,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4773,10 +4773,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -4793,10 +4793,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="47"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -4830,28 +4830,28 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="G5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
       <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="O5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
         <v>5</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -5966,12 +5966,12 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>

--- a/PolarsVsPeaksBenchmark.xlsx
+++ b/PolarsVsPeaksBenchmark.xlsx
@@ -4,68 +4,40 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Distinct" sheetId="5" r:id="rId1"/>
-    <sheet name="GroupBy" sheetId="6" r:id="rId2"/>
-    <sheet name="JoinTable" sheetId="7" r:id="rId3"/>
-    <sheet name="Detail-AlternativeFormula" sheetId="4" r:id="rId4"/>
-    <sheet name="Summary" sheetId="2" r:id="rId5"/>
-    <sheet name="Detail-OriginalFormula" sheetId="1" r:id="rId6"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Distinct" sheetId="5" r:id="rId2"/>
+    <sheet name="GroupBy" sheetId="6" r:id="rId3"/>
+    <sheet name="JoinTable" sheetId="7" r:id="rId4"/>
+    <sheet name="Detail" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
-  <si>
-    <t>Peaks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Million Rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seconds*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain / (loss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing Machine: Dell Micro Optiplex 7070, 8-Cores CPU, 32GB RAM, 500GB SSD Hard Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinct #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupBy #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JoinTable #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Million</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,39 +56,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Peaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconds*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second / Million Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(loss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peaks  is Under Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossTab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All input and output files are in csv format.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>Polars</t>
+  </si>
+  <si>
+    <t>Peaks</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>0.01M</t>
+  </si>
+  <si>
+    <t>0.1M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>1000M</t>
+  </si>
+  <si>
+    <t>GroupBy</t>
+  </si>
+  <si>
+    <t>JoinTable</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Testing Machine: Dell Micro Optiplex 7070, 8-Cores CPU, 32GB RAM, 500GB SSD Hard Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polars Version: 0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Peaks is built by Go version: 1.20.3 Windows/AMD64 (Installed in Win11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distinct</t>
+    <t>Performance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GroupBy</t>
+    <t>Million Rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JoinTable</t>
+    <t>S/Million Rows!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Million</t>
+    <t>Total Seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rows</t>
+    <t>Gain / (loss)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gain</t>
+    <t>Distinct #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(loss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Second / Million Rows</t>
+    <t>GroupBy #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,11 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total Seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/Million Rows!</t>
+    <t>JoinTable #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,77 +222,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>! S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># All input and output files are in csv format.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># All input and output files are in csv format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Note:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* Seconds means average time of 5 tests. Time measure covers from read input file to write output file.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All input and output files are in csv format.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000M</t>
-  </si>
-  <si>
-    <t>Distinct</t>
-  </si>
-  <si>
-    <t>100M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>0.1M</t>
-  </si>
-  <si>
-    <t>0.01M</t>
-  </si>
-  <si>
-    <t>Peaks</t>
-  </si>
-  <si>
-    <t>Polars</t>
-  </si>
-  <si>
-    <t>Million</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>GroupBy</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>JoinTable</t>
-  </si>
-  <si>
-    <t>Polars Version: 0.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -338,6 +358,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -346,7 +446,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,16 +538,43 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,6 +593,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="253600512"/>
-        <c:axId val="253602048"/>
+        <c:axId val="138744960"/>
+        <c:axId val="138746496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253600512"/>
+        <c:axId val="138744960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +887,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253602048"/>
+        <c:crossAx val="138746496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253602048"/>
+        <c:axId val="138746496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +946,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253600512"/>
+        <c:crossAx val="138744960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="253042688"/>
-        <c:axId val="253044224"/>
+        <c:axId val="139002624"/>
+        <c:axId val="139004160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253042688"/>
+        <c:axId val="139002624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1313,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253044224"/>
+        <c:crossAx val="139004160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253044224"/>
+        <c:axId val="139004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1372,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253042688"/>
+        <c:crossAx val="139002624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,7 +1589,7 @@
                   <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,11 +1692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="253209984"/>
-        <c:axId val="253211776"/>
+        <c:axId val="143286656"/>
+        <c:axId val="143288192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253209984"/>
+        <c:axId val="143286656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1739,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253211776"/>
+        <c:crossAx val="143288192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253211776"/>
+        <c:axId val="143288192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1798,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253209984"/>
+        <c:crossAx val="143286656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,7 +1899,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AFE48D-DF09-88DB-28B9-C7CAD58D2F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1942,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769F4D6D-0363-431A-847E-18B138ED05E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1985,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68338CDB-6928-4D06-92FB-134881FBF85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +2020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2228,160 +2364,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T20"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="17" width="8.83984375" style="42"/>
-    <col min="18" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="3" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.62890625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.62890625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="2.62890625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="8.734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="14:19">
-      <c r="N1" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="14:19">
-      <c r="N2" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="42">
+    <row r="1" spans="2:9" ht="10" customHeight="1">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" s="29" customFormat="1" ht="19.8">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="19" customFormat="1">
+      <c r="C3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="19" customFormat="1">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F5" s="20">
         <v>4.0199999999999996</v>
       </c>
-      <c r="Q2" s="42">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="3" spans="14:19">
-      <c r="N3" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="42">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="Q3" s="42">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="14:19">
-      <c r="N4" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="42">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="5" spans="14:19">
-      <c r="N5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="42">
-        <v>0.123</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="6" spans="14:19">
-      <c r="N6" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="42">
-        <v>0.114</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="14:19">
-      <c r="N7" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="42">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="Q7" s="42">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="9" spans="14:19">
-      <c r="S9" s="43"/>
-    </row>
-    <row r="10" spans="14:19">
-      <c r="S10" s="43"/>
-    </row>
-    <row r="11" spans="14:19">
-      <c r="S11" s="43"/>
-    </row>
-    <row r="12" spans="14:19">
-      <c r="S12" s="43"/>
-    </row>
-    <row r="13" spans="14:19">
-      <c r="S13" s="43"/>
-    </row>
-    <row r="14" spans="14:19">
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="14:19">
-      <c r="S15" s="43"/>
-    </row>
-    <row r="16" spans="14:19">
-      <c r="S16" s="43"/>
-    </row>
-    <row r="17" spans="19:20">
-      <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="19:20">
-      <c r="S18" s="43"/>
-    </row>
-    <row r="19" spans="19:20">
-      <c r="S19" s="43"/>
-    </row>
-    <row r="20" spans="19:20">
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
+      <c r="G5" s="20">
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0.60696517412935314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>9.3800000000000008E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.93800000000000006</v>
+      </c>
+      <c r="G6" s="20">
+        <v>7.1200000000000013E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.71200000000000019</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0.24093816631130049</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.21259999999999998</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.18719999999999998</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0.11947318908748827</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="C8" s="32">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.2343999999999999</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.12343999999999999</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.11484000000000001</v>
+      </c>
+      <c r="I8" s="33">
+        <v>6.9669475048606475E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" s="32">
+        <v>100</v>
+      </c>
+      <c r="E9" s="20">
+        <v>11.418800000000001</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.11418800000000001</v>
+      </c>
+      <c r="G9" s="20">
+        <v>9.3134000000000015</v>
+      </c>
+      <c r="H9" s="20">
+        <v>9.3134000000000008E-2</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.18438014502399552</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.1718914</v>
+      </c>
+      <c r="G10" s="20">
+        <v>103.752</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.103752</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.39640959349915122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.42</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0.50292397660818711</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1.034</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.5260000000000002</v>
+      </c>
+      <c r="I13" s="33">
+        <v>-0.32241153342070783</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.34740000000000004</v>
+      </c>
+      <c r="I14" s="33">
+        <v>-0.21761658031088096</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" s="32">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1.5396000000000001</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.15396000000000001</v>
+      </c>
+      <c r="G15" s="20">
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.22699999999999995</v>
+      </c>
+      <c r="I15" s="33">
+        <v>-0.32176211453744474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" s="32">
+        <v>100</v>
+      </c>
+      <c r="E16" s="20">
+        <v>12.912799999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.12912799999999999</v>
+      </c>
+      <c r="G16" s="20">
+        <v>22.830400000000001</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.22830400000000001</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-0.43440325180461142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="20">
+        <v>190.80019999999999</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.1908002</v>
+      </c>
+      <c r="G17" s="20">
+        <v>238.76220000000004</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.23876220000000004</v>
+      </c>
+      <c r="I17" s="33">
+        <v>-0.20087769337022371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3.1400000000000004E-2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="G19" s="20">
+        <v>6.1399999999999996E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>6.14</v>
+      </c>
+      <c r="I19" s="33">
+        <v>-0.48859934853420184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.16840000000000002</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="I20" s="33">
+        <v>-0.63657957244655583</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0.31804435483870963</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="32">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.879</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1.5875999999999999</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.15875999999999998</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0.59071925754060328</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="32">
+        <v>100</v>
+      </c>
+      <c r="E23" s="20">
+        <v>88.646800000000013</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.88646800000000014</v>
+      </c>
+      <c r="G23" s="20">
+        <v>17.806599999999996</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.17806599999999995</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.799128676951678</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="32">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="20">
+        <v>171.8914</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.3" thickBot="1">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" customHeight="1">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" customHeight="1">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C26:I30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2390,114 +2946,114 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="17" width="8.83984375" style="42"/>
-    <col min="18" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="17" width="8.89453125" style="42"/>
+    <col min="18" max="16384" width="8.89453125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
       <c r="N1" s="46" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="14:19">
       <c r="N2" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="P2" s="42">
-        <v>3.42</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Q2" s="42">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3" spans="14:19">
       <c r="N3" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P3" s="42">
-        <v>1.034</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="Q3" s="42">
-        <v>1.526</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="4" spans="14:19">
       <c r="N4" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P4" s="42">
-        <v>0.27200000000000002</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="Q4" s="42">
-        <v>0.34699999999999998</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="5" spans="14:19">
       <c r="N5" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P5" s="42">
-        <v>0.154</v>
+        <v>0.123</v>
       </c>
       <c r="Q5" s="42">
-        <v>0.22700000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="14:19">
       <c r="N6" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P6" s="42">
-        <v>0.129</v>
+        <v>0.114</v>
       </c>
       <c r="Q6" s="42">
-        <v>0.22800000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="14:19">
       <c r="N7" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="42">
-        <v>0.191</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="Q7" s="42">
-        <v>0.23899999999999999</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="9" spans="14:19">
@@ -2549,38 +3105,197 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="18" width="8.83984375" style="42"/>
-    <col min="19" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="17" width="8.89453125" style="42"/>
+    <col min="18" max="16384" width="8.89453125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
       <c r="N1" s="46" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="14:19">
       <c r="N2" s="42" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="P2" s="42">
+        <v>3.42</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="14:19">
+      <c r="N3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="42">
+        <v>1.034</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="4" spans="14:19">
+      <c r="N4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="42">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="14:19">
+      <c r="N5" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="42">
+        <v>0.154</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="14:19">
+      <c r="N6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="42">
+        <v>0.129</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="14:19">
+      <c r="N7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="42">
+        <v>0.191</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="14:19">
+      <c r="S9" s="43"/>
+    </row>
+    <row r="10" spans="14:19">
+      <c r="S10" s="43"/>
+    </row>
+    <row r="11" spans="14:19">
+      <c r="S11" s="43"/>
+    </row>
+    <row r="12" spans="14:19">
+      <c r="S12" s="43"/>
+    </row>
+    <row r="13" spans="14:19">
+      <c r="S13" s="43"/>
+    </row>
+    <row r="14" spans="14:19">
+      <c r="S14" s="43"/>
+    </row>
+    <row r="15" spans="14:19">
+      <c r="S15" s="43"/>
+    </row>
+    <row r="16" spans="14:19">
+      <c r="S16" s="43"/>
+    </row>
+    <row r="17" spans="19:20">
+      <c r="S17" s="43"/>
+    </row>
+    <row r="18" spans="19:20">
+      <c r="S18" s="43"/>
+    </row>
+    <row r="19" spans="19:20">
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="19:20">
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="18" width="8.89453125" style="42"/>
+    <col min="19" max="16384" width="8.89453125" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:19">
+      <c r="N1" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="14:19">
+      <c r="N2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="P2" s="42">
         <v>3.14</v>
@@ -2591,10 +3306,10 @@
     </row>
     <row r="3" spans="14:19">
       <c r="N3" s="42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P3" s="42">
         <v>0.61199999999999999</v>
@@ -2605,10 +3320,10 @@
     </row>
     <row r="4" spans="14:19">
       <c r="N4" s="42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P4" s="42">
         <v>0.39700000000000002</v>
@@ -2619,10 +3334,10 @@
     </row>
     <row r="5" spans="14:19">
       <c r="N5" s="42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P5" s="42">
         <v>0.38800000000000001</v>
@@ -2633,10 +3348,10 @@
     </row>
     <row r="6" spans="14:19">
       <c r="N6" s="42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P6" s="42">
         <v>0.88600000000000001</v>
@@ -2647,16 +3362,16 @@
     </row>
     <row r="7" spans="14:19">
       <c r="N7" s="42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="42">
-        <v>0.17199999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="9" spans="14:19">
@@ -2704,43 +3419,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.62890625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.62890625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.62890625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.3671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.3671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="10.3671875" style="3" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10.47265625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.89453125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="2" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.3671875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9.734375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="19" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="2.578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.05078125" style="11" customWidth="1"/>
+    <col min="18" max="19" width="9.734375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="2.62890625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12" style="11" customWidth="1"/>
     <col min="22" max="16384" width="8.734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2762,12 +3477,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2784,7 +3499,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="9.9" customHeight="1">
+    <row r="3" spans="2:22" ht="10" customHeight="1">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -2807,10 +3522,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="47"/>
+      <c r="E4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -2827,10 +3542,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="47"/>
+      <c r="M4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="58"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -2848,47 +3563,47 @@
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="17" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:22" s="5" customFormat="1" ht="15.3" thickTop="1">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
       <c r="M5" s="38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -2915,7 +3630,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7">
         <v>0.01</v>
@@ -3271,7 +3986,7 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>0.01</v>
@@ -3384,7 +4099,7 @@
         <v>-0.32241153342070783</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -3630,7 +4345,7 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7">
         <v>0.01</v>
@@ -3916,52 +4631,52 @@
         <v>1000</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="23">
-        <f t="shared" si="6"/>
-        <v>171.8914</v>
+        <f>SUM(O26:S26)/5</f>
+        <v>301.87979999999999</v>
       </c>
       <c r="N26" s="20">
         <f>M26/1000</f>
-        <v>0.1718914</v>
+        <v>0.30187979999999998</v>
       </c>
       <c r="O26" s="24">
-        <v>172.76400000000001</v>
+        <v>227.70500000000001</v>
       </c>
       <c r="P26" s="24">
-        <v>175.661</v>
+        <v>293.99700000000001</v>
       </c>
       <c r="Q26" s="24">
-        <v>168.83099999999999</v>
+        <v>322.50099999999998</v>
       </c>
       <c r="R26" s="24">
-        <v>170.72399999999999</v>
+        <v>333.51499999999999</v>
       </c>
       <c r="S26" s="24">
-        <v>171.477</v>
+        <v>331.68099999999998</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -3983,7 +4698,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -4003,12 +4718,12 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4028,7 +4743,7 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -4091,1950 +4806,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="6.578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="2.68359375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.68359375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.734375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="8.734375" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="9.9" customHeight="1">
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="2:11" s="29" customFormat="1" ht="19.8">
-      <c r="B2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1">
-      <c r="C3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="19" customFormat="1">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4.02E-2</v>
-      </c>
-      <c r="F5" s="20">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1.5799999999999998E-2</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.5799999999999998</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0.60696517412935314</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0.60696517412935314</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="C6" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>9.3800000000000008E-2</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0.93800000000000006</v>
-      </c>
-      <c r="G6" s="20">
-        <v>7.1200000000000013E-2</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.71200000000000019</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0.24093816631130049</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0.24093816631130049</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0.11947318908748827</v>
-      </c>
-      <c r="J7" s="33">
-        <v>0.11947318908748827</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="32">
-        <v>10</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0.12343999999999999</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1.1484000000000001</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0.11484000000000001</v>
-      </c>
-      <c r="I8" s="33">
-        <v>6.9669475048606475E-2</v>
-      </c>
-      <c r="J8" s="33">
-        <v>6.9669475048606475E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="32">
-        <v>100</v>
-      </c>
-      <c r="E9" s="20">
-        <v>11.418800000000001</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.11418800000000001</v>
-      </c>
-      <c r="G9" s="20">
-        <v>9.3134000000000015</v>
-      </c>
-      <c r="H9" s="20">
-        <v>9.3134000000000008E-2</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0.18438014502399552</v>
-      </c>
-      <c r="J9" s="33">
-        <v>0.18438014502399552</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="C10" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="20">
-        <v>171.8914</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0.1718914</v>
-      </c>
-      <c r="G10" s="20">
-        <v>103.752</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0.103752</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.39640959349915122</v>
-      </c>
-      <c r="J10" s="33">
-        <v>0.39640959349915122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>3.42</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0.50292397660818711</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0.50292397660818711</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="C13" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.034</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1.5260000000000002</v>
-      </c>
-      <c r="I13" s="33">
-        <v>-0.47582205029013558</v>
-      </c>
-      <c r="J13" s="37">
-        <v>-0.32241153342070783</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="I14" s="33">
-        <v>-0.27814569536423861</v>
-      </c>
-      <c r="J14" s="37">
-        <v>-0.21761658031088096</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="32">
-        <v>10</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1.5396000000000001</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0.15396000000000001</v>
-      </c>
-      <c r="G15" s="20">
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0.22699999999999995</v>
-      </c>
-      <c r="I15" s="33">
-        <v>-0.47440893738633366</v>
-      </c>
-      <c r="J15" s="37">
-        <v>-0.32176211453744474</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="C16" s="32">
-        <v>100</v>
-      </c>
-      <c r="E16" s="20">
-        <v>12.912799999999999</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0.12912799999999999</v>
-      </c>
-      <c r="G16" s="20">
-        <v>22.830400000000001</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0.22830400000000001</v>
-      </c>
-      <c r="I16" s="33">
-        <v>-0.76804411126943828</v>
-      </c>
-      <c r="J16" s="37">
-        <v>-0.43440325180461142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="C17" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="20">
-        <v>190.80019999999999</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0.1908002</v>
-      </c>
-      <c r="G17" s="20">
-        <v>238.76220000000004</v>
-      </c>
-      <c r="H17" s="20">
-        <v>0.23876220000000004</v>
-      </c>
-      <c r="I17" s="33">
-        <v>-0.2513729021248407</v>
-      </c>
-      <c r="J17" s="37">
-        <v>-0.20087769337022371</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="20">
-        <v>3.1400000000000004E-2</v>
-      </c>
-      <c r="F19" s="20">
-        <v>3.1400000000000006</v>
-      </c>
-      <c r="G19" s="20">
-        <v>6.1399999999999996E-2</v>
-      </c>
-      <c r="H19" s="20">
-        <v>6.14</v>
-      </c>
-      <c r="I19" s="33">
-        <v>-0.95541401273885307</v>
-      </c>
-      <c r="J19" s="37">
-        <v>-0.48859934853420184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="C20" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="20">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0.16840000000000002</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1.6840000000000002</v>
-      </c>
-      <c r="I20" s="33">
-        <v>-1.7516339869281048</v>
-      </c>
-      <c r="J20" s="37">
-        <v>-0.63657957244655583</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="F21" s="20">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="I21" s="33">
-        <v>0.31804435483870963</v>
-      </c>
-      <c r="J21" s="33">
-        <v>0.31804435483870963</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="C22" s="32">
-        <v>10</v>
-      </c>
-      <c r="E22" s="20">
-        <v>3.879</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1.5875999999999999</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.15875999999999998</v>
-      </c>
-      <c r="I22" s="33">
-        <v>0.59071925754060328</v>
-      </c>
-      <c r="J22" s="33">
-        <v>0.59071925754060328</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="C23" s="32">
-        <v>100</v>
-      </c>
-      <c r="E23" s="20">
-        <v>88.646800000000013</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.88646800000000014</v>
-      </c>
-      <c r="G23" s="20">
-        <v>17.806599999999996</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0.17806599999999995</v>
-      </c>
-      <c r="I23" s="33">
-        <v>0.799128676951678</v>
-      </c>
-      <c r="J23" s="33">
-        <v>0.799128676951678</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="C24" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="20">
-        <v>171.8914</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0.1718914</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.62890625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.3671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="10.3671875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.47265625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.89453125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="2" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.3671875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="19" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="2.578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.05078125" style="11" customWidth="1"/>
-    <col min="22" max="16384" width="8.734375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:22">
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="2:22">
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="2:22" ht="9.9" customHeight="1">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="2:22" s="4" customFormat="1" ht="20.100000000000001" thickBot="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13">
-        <v>4</v>
-      </c>
-      <c r="K4" s="13">
-        <v>5</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>3</v>
-      </c>
-      <c r="R4" s="13">
-        <v>4</v>
-      </c>
-      <c r="S4" s="13">
-        <v>5</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="2:22" s="5" customFormat="1" ht="15.3" thickTop="1">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="M5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22" s="5" customFormat="1">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="23">
-        <f>SUM(G7:L7)/5</f>
-        <v>4.02E-2</v>
-      </c>
-      <c r="F7" s="20">
-        <f>E7*100</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G7" s="23">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I7" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J7" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="K7" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="23">
-        <f>SUM(O7:S7)/5</f>
-        <v>1.5799999999999998E-2</v>
-      </c>
-      <c r="N7" s="20">
-        <f>M7*100</f>
-        <v>1.5799999999999998</v>
-      </c>
-      <c r="O7" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="P7" s="23">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U7" s="10">
-        <f>(F7-N7)/F7</f>
-        <v>0.60696517412935314</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="C8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="23">
-        <f t="shared" ref="E8:E25" si="0">SUM(G8:L8)/5</f>
-        <v>9.3800000000000008E-2</v>
-      </c>
-      <c r="F8" s="20">
-        <f>E8*10</f>
-        <v>0.93800000000000006</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="H8" s="23">
-        <v>7.8E-2</v>
-      </c>
-      <c r="I8" s="23">
-        <v>7.8E-2</v>
-      </c>
-      <c r="J8" s="23">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K8" s="23">
-        <v>6.3E-2</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="23">
-        <f t="shared" ref="M8:M12" si="1">SUM(O8:S8)/5</f>
-        <v>7.1200000000000013E-2</v>
-      </c>
-      <c r="N8" s="20">
-        <f>M8*10</f>
-        <v>0.71200000000000019</v>
-      </c>
-      <c r="O8" s="23">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="P8" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="R8" s="23">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S8" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="U8" s="10">
-        <f t="shared" ref="U8:U12" si="2">(F8-N8)/F8</f>
-        <v>0.24093816631130049</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="F9" s="20">
-        <f>E9*1</f>
-        <v>0.21259999999999998</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.156</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="N9" s="20">
-        <f>M9*1</f>
-        <v>0.18719999999999998</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="P9" s="23">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0.192</v>
-      </c>
-      <c r="U9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.11947318908748827</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22">
-      <c r="C10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="23">
-        <f t="shared" si="0"/>
-        <v>1.2343999999999999</v>
-      </c>
-      <c r="F10" s="20">
-        <f>E10/10</f>
-        <v>0.12343999999999999</v>
-      </c>
-      <c r="G10" s="23">
-        <v>2.173</v>
-      </c>
-      <c r="H10" s="23">
-        <v>1.125</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="K10" s="23">
-        <v>1.016</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="23">
-        <f t="shared" si="1"/>
-        <v>1.1484000000000001</v>
-      </c>
-      <c r="N10" s="20">
-        <f>M10/10</f>
-        <v>0.11484000000000001</v>
-      </c>
-      <c r="O10" s="23">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="P10" s="23">
-        <v>1.07</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>1.129</v>
-      </c>
-      <c r="R10" s="23">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="S10" s="23">
-        <v>1.054</v>
-      </c>
-      <c r="U10" s="10">
-        <f t="shared" si="2"/>
-        <v>6.9669475048606475E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22">
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="23">
-        <f t="shared" si="0"/>
-        <v>11.418800000000001</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11/100</f>
-        <v>0.11418800000000001</v>
-      </c>
-      <c r="G11" s="23">
-        <v>15.798999999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>9</v>
-      </c>
-      <c r="I11" s="23">
-        <v>8.907</v>
-      </c>
-      <c r="J11" s="23">
-        <v>13.56</v>
-      </c>
-      <c r="K11" s="23">
-        <v>9.8279999999999994</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="23">
-        <f t="shared" si="1"/>
-        <v>9.3134000000000015</v>
-      </c>
-      <c r="N11" s="20">
-        <f>M11/100</f>
-        <v>9.3134000000000008E-2</v>
-      </c>
-      <c r="O11" s="23">
-        <v>10.167999999999999</v>
-      </c>
-      <c r="P11" s="23">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="R11" s="23">
-        <v>8.9890000000000008</v>
-      </c>
-      <c r="S11" s="23">
-        <v>9.09</v>
-      </c>
-      <c r="U11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.18438014502399552</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
-      <c r="C12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="23">
-        <f t="shared" si="0"/>
-        <v>171.8914</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E12/1000</f>
-        <v>0.1718914</v>
-      </c>
-      <c r="G12" s="23">
-        <v>172.76400000000001</v>
-      </c>
-      <c r="H12" s="23">
-        <v>175.661</v>
-      </c>
-      <c r="I12" s="23">
-        <v>168.83099999999999</v>
-      </c>
-      <c r="J12" s="23">
-        <v>170.72399999999999</v>
-      </c>
-      <c r="K12" s="23">
-        <v>171.477</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="23">
-        <f t="shared" si="1"/>
-        <v>103.752</v>
-      </c>
-      <c r="N12" s="20">
-        <f>M12/1000</f>
-        <v>0.103752</v>
-      </c>
-      <c r="O12" s="23">
-        <v>104.672</v>
-      </c>
-      <c r="P12" s="23">
-        <v>101.31</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>105.82599999999999</v>
-      </c>
-      <c r="R12" s="23">
-        <v>103.587</v>
-      </c>
-      <c r="S12" s="23">
-        <v>103.36499999999999</v>
-      </c>
-      <c r="U12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.39640959349915122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22">
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="0"/>
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="F14" s="20">
-        <f>E14*100</f>
-        <v>3.42</v>
-      </c>
-      <c r="G14" s="23">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H14" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I14" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J14" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="K14" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="23">
-        <f t="shared" ref="M14:M19" si="3">SUM(O14:S14)/5</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N14" s="20">
-        <f>M14*100</f>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="O14" s="23">
-        <v>2.3E-2</v>
-      </c>
-      <c r="P14" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="R14" s="23">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S14" s="23">
-        <v>1.6E-2</v>
-      </c>
-      <c r="U14" s="10">
-        <f t="shared" ref="U14:U19" si="4">(F14-N14)/F14</f>
-        <v>0.50292397660818711</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22">
-      <c r="C15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="23">
-        <f t="shared" si="0"/>
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F15" s="20">
-        <f>E15*10</f>
-        <v>1.034</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.125</v>
-      </c>
-      <c r="H15" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I15" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0.11</v>
-      </c>
-      <c r="K15" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="23">
-        <f t="shared" si="3"/>
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="N15" s="20">
-        <f>M15*10</f>
-        <v>1.5260000000000002</v>
-      </c>
-      <c r="O15" s="23">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="P15" s="23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="R15" s="23">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="S15" s="23">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="U15" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.47582205029013558</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22">
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="0"/>
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="F16" s="20">
-        <f>E16*1</f>
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="H16" s="23">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="K16" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="23">
-        <f t="shared" si="3"/>
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="N16" s="20">
-        <f>M16*1</f>
-        <v>0.34740000000000004</v>
-      </c>
-      <c r="O16" s="23">
-        <v>0.39</v>
-      </c>
-      <c r="P16" s="23">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="R16" s="23">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="U16" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.27814569536423861</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.5396000000000001</v>
-      </c>
-      <c r="F17" s="20">
-        <f>E17/10</f>
-        <v>0.15396000000000001</v>
-      </c>
-      <c r="G17" s="23">
-        <v>2.141</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1.359</v>
-      </c>
-      <c r="I17" s="23">
-        <v>1.385</v>
-      </c>
-      <c r="J17" s="23">
-        <v>1.36</v>
-      </c>
-      <c r="K17" s="23">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="23">
-        <f t="shared" si="3"/>
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="N17" s="20">
-        <f>M17/10</f>
-        <v>0.22699999999999995</v>
-      </c>
-      <c r="O17" s="23">
-        <v>2.6059999999999999</v>
-      </c>
-      <c r="P17" s="23">
-        <v>2.177</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>2.1890000000000001</v>
-      </c>
-      <c r="R17" s="23">
-        <v>2.242</v>
-      </c>
-      <c r="S17" s="23">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="U17" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.47440893738633366</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="C18" s="7">
-        <v>100</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="0"/>
-        <v>12.912799999999999</v>
-      </c>
-      <c r="F18" s="20">
-        <f>E18/100</f>
-        <v>0.12912799999999999</v>
-      </c>
-      <c r="G18" s="23">
-        <v>16.934999999999999</v>
-      </c>
-      <c r="H18" s="23">
-        <v>10.609</v>
-      </c>
-      <c r="I18" s="23">
-        <v>11.750999999999999</v>
-      </c>
-      <c r="J18" s="23">
-        <v>14.269</v>
-      </c>
-      <c r="K18" s="23">
-        <v>11</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="23">
-        <f t="shared" si="3"/>
-        <v>22.830400000000001</v>
-      </c>
-      <c r="N18" s="20">
-        <f>M18/100</f>
-        <v>0.22830400000000001</v>
-      </c>
-      <c r="O18" s="23">
-        <v>21.928000000000001</v>
-      </c>
-      <c r="P18" s="23">
-        <v>21.113</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>25.919</v>
-      </c>
-      <c r="R18" s="23">
-        <v>22.602</v>
-      </c>
-      <c r="S18" s="23">
-        <v>22.59</v>
-      </c>
-      <c r="U18" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.76804411126943828</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="C19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="0"/>
-        <v>190.80019999999999</v>
-      </c>
-      <c r="F19" s="20">
-        <f>E19/1000</f>
-        <v>0.1908002</v>
-      </c>
-      <c r="G19" s="23">
-        <v>195.29499999999999</v>
-      </c>
-      <c r="H19" s="23">
-        <v>190.23599999999999</v>
-      </c>
-      <c r="I19" s="23">
-        <v>188.833</v>
-      </c>
-      <c r="J19" s="23">
-        <v>190.262</v>
-      </c>
-      <c r="K19" s="23">
-        <v>189.375</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="23">
-        <f t="shared" si="3"/>
-        <v>238.76220000000004</v>
-      </c>
-      <c r="N19" s="20">
-        <f>M19/1000</f>
-        <v>0.23876220000000004</v>
-      </c>
-      <c r="O19" s="23">
-        <v>243.15899999999999</v>
-      </c>
-      <c r="P19" s="23">
-        <v>240.16300000000001</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>236.82900000000001</v>
-      </c>
-      <c r="R19" s="23">
-        <v>236.29300000000001</v>
-      </c>
-      <c r="S19" s="23">
-        <v>237.36699999999999</v>
-      </c>
-      <c r="U19" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.2513729021248407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="E20" s="23"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="23">
-        <f t="shared" si="0"/>
-        <v>3.1400000000000004E-2</v>
-      </c>
-      <c r="F21" s="20">
-        <f>E21*100</f>
-        <v>3.1400000000000006</v>
-      </c>
-      <c r="G21" s="23">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H21" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I21" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J21" s="23">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K21" s="23">
-        <v>1.6E-2</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="23">
-        <f t="shared" ref="M21:M26" si="5">SUM(O21:S21)/5</f>
-        <v>6.1399999999999996E-2</v>
-      </c>
-      <c r="N21" s="20">
-        <f>M21*100</f>
-        <v>6.14</v>
-      </c>
-      <c r="O21" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="P21" s="23">
-        <v>0.06</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R21" s="23">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="S21" s="23">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="U21" s="10">
-        <f t="shared" ref="U21:U25" si="6">(F21-N21)/F21</f>
-        <v>-0.95541401273885307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="C22" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="0"/>
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="F22" s="20">
-        <f>E22*10</f>
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G22" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H22" s="23">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I22" s="23">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J22" s="23">
-        <v>6.2E-2</v>
-      </c>
-      <c r="K22" s="23">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="23">
-        <f t="shared" si="5"/>
-        <v>0.16840000000000002</v>
-      </c>
-      <c r="N22" s="20">
-        <f>M22*10</f>
-        <v>1.6840000000000002</v>
-      </c>
-      <c r="O22" s="23">
-        <v>0.189</v>
-      </c>
-      <c r="P22" s="23">
-        <v>0.156</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="R22" s="23">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="S22" s="23">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="U22" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.7516339869281048</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <f t="shared" si="0"/>
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="F23" s="20">
-        <f>E23*1</f>
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="G23" s="23">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="H23" s="23">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="I23" s="23">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="K23" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="23">
-        <f t="shared" si="5"/>
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="N23" s="20">
-        <f>M23*1</f>
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="O23" s="23">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="P23" s="23">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="Q23" s="23">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="R23" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="S23" s="23">
-        <v>0.252</v>
-      </c>
-      <c r="U23" s="10">
-        <f t="shared" si="6"/>
-        <v>0.31804435483870963</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="C24" s="7">
-        <v>10</v>
-      </c>
-      <c r="E24" s="23">
-        <f t="shared" si="0"/>
-        <v>3.879</v>
-      </c>
-      <c r="F24" s="20">
-        <f>E24/10</f>
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="G24" s="23">
-        <v>4.2</v>
-      </c>
-      <c r="H24" s="23">
-        <v>3.86</v>
-      </c>
-      <c r="I24" s="23">
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="J24" s="23">
-        <v>3.734</v>
-      </c>
-      <c r="K24" s="23">
-        <v>3.6560000000000001</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="23">
-        <f t="shared" si="5"/>
-        <v>1.5875999999999999</v>
-      </c>
-      <c r="N24" s="20">
-        <f>M24/10</f>
-        <v>0.15875999999999998</v>
-      </c>
-      <c r="O24" s="23">
-        <v>1.891</v>
-      </c>
-      <c r="P24" s="23">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>1.526</v>
-      </c>
-      <c r="R24" s="23">
-        <v>1.534</v>
-      </c>
-      <c r="S24" s="23">
-        <v>1.482</v>
-      </c>
-      <c r="U24" s="10">
-        <f t="shared" si="6"/>
-        <v>0.59071925754060328</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="C25" s="7">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23">
-        <f t="shared" si="0"/>
-        <v>88.646800000000013</v>
-      </c>
-      <c r="F25" s="20">
-        <f>E25/100</f>
-        <v>0.88646800000000014</v>
-      </c>
-      <c r="G25" s="23">
-        <v>77.786000000000001</v>
-      </c>
-      <c r="H25" s="23">
-        <v>92.966999999999999</v>
-      </c>
-      <c r="I25" s="23">
-        <v>106.863</v>
-      </c>
-      <c r="J25" s="23">
-        <v>84.843000000000004</v>
-      </c>
-      <c r="K25" s="23">
-        <v>80.775000000000006</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23">
-        <f t="shared" si="5"/>
-        <v>17.806599999999996</v>
-      </c>
-      <c r="N25" s="20">
-        <f>M25/100</f>
-        <v>0.17806599999999995</v>
-      </c>
-      <c r="O25" s="23">
-        <v>16.663</v>
-      </c>
-      <c r="P25" s="23">
-        <v>15.782</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>20.300999999999998</v>
-      </c>
-      <c r="R25" s="23">
-        <v>16.472000000000001</v>
-      </c>
-      <c r="S25" s="23">
-        <v>19.815000000000001</v>
-      </c>
-      <c r="U25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.799128676951678</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="C26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="23">
-        <f t="shared" si="5"/>
-        <v>171.8914</v>
-      </c>
-      <c r="N26" s="20">
-        <f>M26/1000</f>
-        <v>0.1718914</v>
-      </c>
-      <c r="O26" s="24">
-        <v>172.76400000000001</v>
-      </c>
-      <c r="P26" s="24">
-        <v>175.661</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>168.83099999999999</v>
-      </c>
-      <c r="R26" s="24">
-        <v>170.72399999999999</v>
-      </c>
-      <c r="S26" s="24">
-        <v>171.477</v>
-      </c>
-      <c r="U26" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="O5:S5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>